--- a/dashboard_spaece_5_9_ano/xls/result_alfa.xlsx
+++ b/dashboard_spaece_5_9_ano/xls/result_alfa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\SPAECE_preliminar_2024\Coleta de Dados SPAECE 2024\dashboard_spaece_5_9_ano\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA7F43-E37A-4F7F-A40D-99D9EC251B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8538BE-2543-46FA-ACE3-3E4E8A716D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A15BE6F9-0A8F-4512-8B76-2A37B3F7CAF1}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4065" uniqueCount="112">
   <si>
     <t>CREDE</t>
   </si>
@@ -370,10 +370,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +394,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,7 +415,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -425,11 +438,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,6 +468,38 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,15 +816,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82CA601-A066-4F37-8649-71173EFF5167}">
-  <dimension ref="B1:AA568"/>
+  <dimension ref="B1:AA586"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A556" workbookViewId="0">
+      <selection activeCell="D567" sqref="D567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="68.140625" customWidth="1"/>
+    <col min="17" max="18" width="13.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="90" x14ac:dyDescent="0.25">
@@ -46210,6 +46270,830 @@
       <c r="AA568" s="1" t="s">
         <v>85</v>
       </c>
+    </row>
+    <row r="569" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B569" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C569" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D569" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E569" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F569" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G569" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H569" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I569" s="8">
+        <v>2012</v>
+      </c>
+      <c r="J569" s="9">
+        <v>155.54772695804746</v>
+      </c>
+      <c r="K569" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L569" s="9">
+        <v>1.4960629921259843</v>
+      </c>
+      <c r="M569" s="9">
+        <v>6.3385826771653546</v>
+      </c>
+      <c r="N569" s="9">
+        <v>17.007874015748033</v>
+      </c>
+      <c r="O569" s="9">
+        <v>21.889763779527559</v>
+      </c>
+      <c r="P569" s="9">
+        <v>53.267716535433074</v>
+      </c>
+      <c r="Q569" s="11">
+        <v>2627</v>
+      </c>
+      <c r="R569" s="11">
+        <v>2540</v>
+      </c>
+      <c r="S569" s="12">
+        <v>7.7773863479023735</v>
+      </c>
+      <c r="T569" s="12">
+        <v>0.79773622047244108</v>
+      </c>
+      <c r="U569" s="11">
+        <v>38</v>
+      </c>
+      <c r="V569" s="11">
+        <v>161</v>
+      </c>
+      <c r="W569" s="11">
+        <v>432</v>
+      </c>
+      <c r="X569" s="11">
+        <v>556</v>
+      </c>
+      <c r="Y569" s="11">
+        <v>1353</v>
+      </c>
+      <c r="Z569" s="9">
+        <v>5.998831019199538</v>
+      </c>
+      <c r="AA569" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="570" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B570" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C570" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D570" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E570" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F570" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G570" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H570" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I570" s="8">
+        <v>2013</v>
+      </c>
+      <c r="J570" s="9">
+        <v>155.89289233300906</v>
+      </c>
+      <c r="K570" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L570" s="9">
+        <v>1.2780790085205267</v>
+      </c>
+      <c r="M570" s="9">
+        <v>5.1510457010069715</v>
+      </c>
+      <c r="N570" s="9">
+        <v>12.858249419054996</v>
+      </c>
+      <c r="O570" s="9">
+        <v>24.941905499612702</v>
+      </c>
+      <c r="P570" s="9">
+        <v>55.770720371804799</v>
+      </c>
+      <c r="Q570" s="11">
+        <v>2508</v>
+      </c>
+      <c r="R570" s="11">
+        <v>2582</v>
+      </c>
+      <c r="S570" s="12">
+        <v>7.7946446166504524</v>
+      </c>
+      <c r="T570" s="12">
+        <v>0.8219403563129356</v>
+      </c>
+      <c r="U570" s="11">
+        <v>33</v>
+      </c>
+      <c r="V570" s="11">
+        <v>133</v>
+      </c>
+      <c r="W570" s="11">
+        <v>332</v>
+      </c>
+      <c r="X570" s="11">
+        <v>644</v>
+      </c>
+      <c r="Y570" s="11">
+        <v>1440</v>
+      </c>
+      <c r="Z570" s="9">
+        <v>6.4067329735423781</v>
+      </c>
+      <c r="AA570" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="571" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B571" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C571" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D571" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E571" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F571" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G571" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H571" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I571" s="8">
+        <v>2014</v>
+      </c>
+      <c r="J571" s="9">
+        <v>150.61126501458693</v>
+      </c>
+      <c r="K571" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L571" s="9">
+        <v>1.1288805268109126</v>
+      </c>
+      <c r="M571" s="9">
+        <v>7.9962370649106305</v>
+      </c>
+      <c r="N571" s="9">
+        <v>18.391345249294449</v>
+      </c>
+      <c r="O571" s="9">
+        <v>25.611476952022578</v>
+      </c>
+      <c r="P571" s="9">
+        <v>46.872060206961429</v>
+      </c>
+      <c r="Q571" s="11">
+        <v>4158</v>
+      </c>
+      <c r="R571" s="11">
+        <v>4252</v>
+      </c>
+      <c r="S571" s="12">
+        <v>7.5305632507293465</v>
+      </c>
+      <c r="T571" s="12">
+        <v>0.77275399811853251</v>
+      </c>
+      <c r="U571" s="11">
+        <v>48</v>
+      </c>
+      <c r="V571" s="11">
+        <v>340</v>
+      </c>
+      <c r="W571" s="11">
+        <v>782</v>
+      </c>
+      <c r="X571" s="11">
+        <v>1089</v>
+      </c>
+      <c r="Y571" s="11">
+        <v>1993</v>
+      </c>
+      <c r="Z571" s="9">
+        <v>5.8192728600855954</v>
+      </c>
+      <c r="AA571" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="572" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B572" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C572" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D572" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E572" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F572" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G572" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H572" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I572" s="8">
+        <v>2015</v>
+      </c>
+      <c r="J572" s="9">
+        <v>158.79424894365371</v>
+      </c>
+      <c r="K572" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L572" s="9">
+        <v>0.88152327221438642</v>
+      </c>
+      <c r="M572" s="9">
+        <v>6.1706629055007056</v>
+      </c>
+      <c r="N572" s="9">
+        <v>16.502115655853313</v>
+      </c>
+      <c r="O572" s="9">
+        <v>21.544428772919606</v>
+      </c>
+      <c r="P572" s="9">
+        <v>54.901269393511988</v>
+      </c>
+      <c r="Q572" s="11">
+        <v>2729</v>
+      </c>
+      <c r="R572" s="11">
+        <v>2836</v>
+      </c>
+      <c r="S572" s="12">
+        <v>7.9397124471826857</v>
+      </c>
+      <c r="T572" s="12">
+        <v>0.80853314527503528</v>
+      </c>
+      <c r="U572" s="11">
+        <v>25</v>
+      </c>
+      <c r="V572" s="11">
+        <v>175</v>
+      </c>
+      <c r="W572" s="11">
+        <v>468</v>
+      </c>
+      <c r="X572" s="11">
+        <v>611</v>
+      </c>
+      <c r="Y572" s="11">
+        <v>1557</v>
+      </c>
+      <c r="Z572" s="9">
+        <v>6.419520677499964</v>
+      </c>
+      <c r="AA572" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="573" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B573" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C573" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D573" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E573" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F573" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G573" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H573" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I573" s="8">
+        <v>2016</v>
+      </c>
+      <c r="J573" s="9">
+        <v>170.51899528588891</v>
+      </c>
+      <c r="K573" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L573" s="9">
+        <v>1.0247349823321554</v>
+      </c>
+      <c r="M573" s="9">
+        <v>5.8657243816254416</v>
+      </c>
+      <c r="N573" s="9">
+        <v>11.342756183745584</v>
+      </c>
+      <c r="O573" s="9">
+        <v>15.971731448763251</v>
+      </c>
+      <c r="P573" s="9">
+        <v>65.795053003533567</v>
+      </c>
+      <c r="Q573" s="11">
+        <v>2756</v>
+      </c>
+      <c r="R573" s="11">
+        <v>2830</v>
+      </c>
+      <c r="S573" s="12">
+        <v>8.5259497642944453</v>
+      </c>
+      <c r="T573" s="12">
+        <v>0.84911660777385156</v>
+      </c>
+      <c r="U573" s="11">
+        <v>29</v>
+      </c>
+      <c r="V573" s="11">
+        <v>166</v>
+      </c>
+      <c r="W573" s="11">
+        <v>321</v>
+      </c>
+      <c r="X573" s="11">
+        <v>452</v>
+      </c>
+      <c r="Y573" s="11">
+        <v>1862</v>
+      </c>
+      <c r="Z573" s="9">
+        <v>7.2395255419079687</v>
+      </c>
+      <c r="AA573" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="574" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B574" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C574" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D574" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E574" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F574" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G574" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H574" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I574" s="8">
+        <v>2017</v>
+      </c>
+      <c r="J574" s="9">
+        <v>171.742291116096</v>
+      </c>
+      <c r="K574" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L574" s="9">
+        <v>0.98828696925329396</v>
+      </c>
+      <c r="M574" s="9">
+        <v>5.8199121522694002</v>
+      </c>
+      <c r="N574" s="9">
+        <v>11.4202049780381</v>
+      </c>
+      <c r="O574" s="9">
+        <v>14.9707174231332</v>
+      </c>
+      <c r="P574" s="9">
+        <v>66.800878477306</v>
+      </c>
+      <c r="Q574" s="11">
+        <v>2629</v>
+      </c>
+      <c r="R574" s="11">
+        <v>2732</v>
+      </c>
+      <c r="S574" s="12">
+        <v>8.5871145558048205</v>
+      </c>
+      <c r="T574" s="12">
+        <v>0.851939970717423</v>
+      </c>
+      <c r="U574" s="11">
+        <v>27</v>
+      </c>
+      <c r="V574" s="11">
+        <v>159</v>
+      </c>
+      <c r="W574" s="11">
+        <v>312</v>
+      </c>
+      <c r="X574" s="11">
+        <v>409</v>
+      </c>
+      <c r="Y574" s="11">
+        <v>1825</v>
+      </c>
+      <c r="Z574" s="9">
+        <v>7.3157061232195097</v>
+      </c>
+      <c r="AA574" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="575" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B575" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C575" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D575" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E575" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F575" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G575" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H575" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I575" s="8">
+        <v>2018</v>
+      </c>
+      <c r="J575" s="9">
+        <v>175.447784872521</v>
+      </c>
+      <c r="K575" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L575" s="9">
+        <v>0.82449941107184899</v>
+      </c>
+      <c r="M575" s="9">
+        <v>3.7691401648998801</v>
+      </c>
+      <c r="N575" s="9">
+        <v>8.9517078916372199</v>
+      </c>
+      <c r="O575" s="9">
+        <v>15.7047506870828</v>
+      </c>
+      <c r="P575" s="9">
+        <v>70.749901845308202</v>
+      </c>
+      <c r="Q575" s="11">
+        <v>2458</v>
+      </c>
+      <c r="R575" s="11">
+        <v>2547</v>
+      </c>
+      <c r="S575" s="12">
+        <v>8.7723892436260407</v>
+      </c>
+      <c r="T575" s="12">
+        <v>0.87946603847663896</v>
+      </c>
+      <c r="U575" s="11">
+        <v>21</v>
+      </c>
+      <c r="V575" s="11">
+        <v>96</v>
+      </c>
+      <c r="W575" s="11">
+        <v>228</v>
+      </c>
+      <c r="X575" s="11">
+        <v>400</v>
+      </c>
+      <c r="Y575" s="11">
+        <v>1802</v>
+      </c>
+      <c r="Z575" s="9">
+        <v>7.7150184160668704</v>
+      </c>
+      <c r="AA575" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="576" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B576" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C576" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D576" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E576" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F576" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G576" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H576" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I576" s="8">
+        <v>2019</v>
+      </c>
+      <c r="J576" s="9">
+        <v>187.917500057387</v>
+      </c>
+      <c r="K576" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L576" s="9">
+        <v>0.68649885583523995</v>
+      </c>
+      <c r="M576" s="9">
+        <v>2.4713958810068699</v>
+      </c>
+      <c r="N576" s="9">
+        <v>7.1853546910755197</v>
+      </c>
+      <c r="O576" s="9">
+        <v>11.853546910755099</v>
+      </c>
+      <c r="P576" s="9">
+        <v>77.803203661327203</v>
+      </c>
+      <c r="Q576" s="11">
+        <v>2115</v>
+      </c>
+      <c r="R576" s="11">
+        <v>2185</v>
+      </c>
+      <c r="S576" s="12">
+        <v>9.3958750028693494</v>
+      </c>
+      <c r="T576" s="12">
+        <v>0.90903890160183098</v>
+      </c>
+      <c r="U576" s="11">
+        <v>15</v>
+      </c>
+      <c r="V576" s="11">
+        <v>54</v>
+      </c>
+      <c r="W576" s="11">
+        <v>157</v>
+      </c>
+      <c r="X576" s="11">
+        <v>259</v>
+      </c>
+      <c r="Y576" s="11">
+        <v>1700</v>
+      </c>
+      <c r="Z576" s="9">
+        <v>8.5412158921964494</v>
+      </c>
+      <c r="AA576" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="577" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B577" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C577" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D577" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E577" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F577" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G577" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H577" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I577" s="8">
+        <v>2022</v>
+      </c>
+      <c r="J577" s="9">
+        <v>169.56480233224599</v>
+      </c>
+      <c r="K577" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L577" s="9">
+        <v>2.1321216357916799</v>
+      </c>
+      <c r="M577" s="9">
+        <v>6.0468367703600103</v>
+      </c>
+      <c r="N577" s="9">
+        <v>14.260747990213201</v>
+      </c>
+      <c r="O577" s="9">
+        <v>15.623907724571801</v>
+      </c>
+      <c r="P577" s="9">
+        <v>61.936385879063302</v>
+      </c>
+      <c r="Q577" s="11">
+        <v>2774</v>
+      </c>
+      <c r="R577" s="11">
+        <v>2861</v>
+      </c>
+      <c r="S577" s="12">
+        <v>8.4782401166122892</v>
+      </c>
+      <c r="T577" s="12">
+        <v>0.82296399860188696</v>
+      </c>
+      <c r="U577" s="11">
+        <v>61</v>
+      </c>
+      <c r="V577" s="11">
+        <v>173</v>
+      </c>
+      <c r="W577" s="11">
+        <v>408</v>
+      </c>
+      <c r="X577" s="11">
+        <v>447</v>
+      </c>
+      <c r="Y577" s="11">
+        <v>1772</v>
+      </c>
+      <c r="Z577" s="9">
+        <v>6.9772863874741802</v>
+      </c>
+      <c r="AA577" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="578" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B578" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C578" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D578" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E578" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="F578" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G578" s="8">
+        <v>2307650</v>
+      </c>
+      <c r="H578" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I578" s="8">
+        <v>2023</v>
+      </c>
+      <c r="J578" s="9">
+        <v>206.96298820355599</v>
+      </c>
+      <c r="K578" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L578" s="9">
+        <v>6.6800267201068797E-2</v>
+      </c>
+      <c r="M578" s="9">
+        <v>0.400801603206413</v>
+      </c>
+      <c r="N578" s="9">
+        <v>2.4716098864395502</v>
+      </c>
+      <c r="O578" s="9">
+        <v>6.0788243152972603</v>
+      </c>
+      <c r="P578" s="9">
+        <v>90.981963927855702</v>
+      </c>
+      <c r="Q578" s="11">
+        <v>2898</v>
+      </c>
+      <c r="R578" s="11">
+        <v>2994</v>
+      </c>
+      <c r="S578" s="12">
+        <v>10</v>
+      </c>
+      <c r="T578" s="12">
+        <v>0.96877087508350002</v>
+      </c>
+      <c r="U578" s="11">
+        <v>2</v>
+      </c>
+      <c r="V578" s="11">
+        <v>12</v>
+      </c>
+      <c r="W578" s="11">
+        <v>74</v>
+      </c>
+      <c r="X578" s="11">
+        <v>182</v>
+      </c>
+      <c r="Y578" s="11">
+        <v>2724</v>
+      </c>
+      <c r="Z578" s="9">
+        <v>9.6877087508350002</v>
+      </c>
+      <c r="AA578" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="579" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B579" s="13"/>
+    </row>
+    <row r="580" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B580" s="13"/>
+    </row>
+    <row r="581" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B581" s="13"/>
+    </row>
+    <row r="582" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B582" s="13"/>
+    </row>
+    <row r="583" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B583" s="13"/>
+    </row>
+    <row r="584" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B584" s="13"/>
+    </row>
+    <row r="585" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B585" s="13"/>
+    </row>
+    <row r="586" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B586" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:AA568" xr:uid="{B82CA601-A066-4F37-8649-71173EFF5167}">
